--- a/tools/聲母表.xlsx
+++ b/tools/聲母表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086C2E93-374A-4A5A-AB68-44C0326A64AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E97DE3D-D78B-4D5D-91C7-58B5956ABDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCA04C49-CB5D-4DF7-A506-B8C9606E5403}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{BCA04C49-CB5D-4DF7-A506-B8C9606E5403}"/>
   </bookViews>
   <sheets>
     <sheet name="Siann_Bu_Piau" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
   <si>
     <t>序號</t>
   </si>
@@ -91,9 +91,6 @@
     <t>p</t>
   </si>
   <si>
-    <t>[p]</t>
-  </si>
-  <si>
     <t>邊</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>[b]</t>
-  </si>
-  <si>
     <t>門</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>ph</t>
   </si>
   <si>
-    <t>[pʰ]</t>
-  </si>
-  <si>
     <t>頗</t>
   </si>
   <si>
@@ -128,9 +119,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>[m]</t>
   </si>
   <si>
     <t>ㄇ</t>
@@ -143,9 +131,6 @@
     <t>t</t>
   </si>
   <si>
-    <t>[t]</t>
-  </si>
-  <si>
     <t>地</t>
   </si>
   <si>
@@ -158,9 +143,6 @@
     <t>th</t>
   </si>
   <si>
-    <t>[tʰ]</t>
-  </si>
-  <si>
     <t>他</t>
   </si>
   <si>
@@ -170,9 +152,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>[n]</t>
-  </si>
-  <si>
     <t>柳</t>
   </si>
   <si>
@@ -185,18 +164,12 @@
     <t>l</t>
   </si>
   <si>
-    <t>[l]</t>
-  </si>
-  <si>
     <t>ㄌ</t>
   </si>
   <si>
     <t>k</t>
   </si>
   <si>
-    <t>[k]</t>
-  </si>
-  <si>
     <t>求</t>
   </si>
   <si>
@@ -209,18 +182,12 @@
     <t>kh</t>
   </si>
   <si>
-    <t>[kʰ]</t>
-  </si>
-  <si>
     <t>去</t>
   </si>
   <si>
     <t>ㄎ</t>
   </si>
   <si>
-    <t>[ɡ]</t>
-  </si>
-  <si>
     <t>語</t>
   </si>
   <si>
@@ -231,9 +198,6 @@
   </si>
   <si>
     <t>ng</t>
-  </si>
-  <si>
-    <t>[ŋ]</t>
   </si>
   <si>
     <t>ㄫ</t>
@@ -249,9 +213,6 @@
     <t>h</t>
   </si>
   <si>
-    <t>[h]</t>
-  </si>
-  <si>
     <t>喜</t>
   </si>
   <si>
@@ -265,10 +226,6 @@
     <t>ts</t>
   </si>
   <si>
-    <t>[ʦ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曾</t>
   </si>
   <si>
@@ -290,10 +247,6 @@
     <t>tsh</t>
   </si>
   <si>
-    <t>[ʦʰ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出</t>
   </si>
   <si>
@@ -315,10 +268,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>[s]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>時</t>
   </si>
   <si>
@@ -329,10 +278,6 @@
     <t>j</t>
   </si>
   <si>
-    <t>[ʣ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>入</t>
   </si>
   <si>
@@ -341,6 +286,72 @@
   </si>
   <si>
     <t>zzi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kʰ</t>
+  </si>
+  <si>
+    <t>ɡ</t>
+  </si>
+  <si>
+    <t>ŋ</t>
+  </si>
+  <si>
+    <t>ʦ</t>
+  </si>
+  <si>
+    <t>ʦʰ</t>
+  </si>
+  <si>
+    <t>ʣ</t>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ʰ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ʰ</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -403,12 +414,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="26"/>
       <color theme="1"/>
       <name val="LXGW WenKai Mono TC Bold"/>
@@ -421,10 +426,33 @@
       <charset val="136"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="黒体-繁"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0070C0"/>
+      <name val="黒体-繁"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -472,7 +500,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,12 +521,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -507,7 +532,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -6659,7 +6690,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5" customHeight="1"/>
@@ -6697,472 +6728,472 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
+      <c r="H4" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>21</v>
+      <c r="H5" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>34</v>
+      <c r="C8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>68</v>
+      <c r="D17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="19" spans="1:8" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>87</v>
+        <v>71</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1"/>
